--- a/pred_ohlcv/54_21/2020-01-13 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 AOA ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-12300286.7962</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-13557371.7962</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-33483008.51300001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-32149499.38720001</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-34178849.3016</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-31398787.5416</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-32195732.5416</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-31290320.6616</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-36849312.05480001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-36728183.18200001</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 AOA ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-14942090.7962</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-33483008.51300001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-31920403.9316</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-31979592.37290001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-32149499.38720001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-34178849.3016</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-32245732.5416</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-34231104.5416</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-32436723.6616</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-35713401.5416</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-33476002.6616</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-36887831.5416</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-36887831.5416</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-36849312.05480001</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
